--- a/ninjacrm-automation-framework/src/test/resources/testData.xlsx
+++ b/ninjacrm-automation-framework/src/test/resources/testData.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Basic_Selenium\ninjacrm-automation-framework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\NinjaCRM-FW\ninjacrm-automation-framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Opp" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>Opportunity ID</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Priya Sharma</t>
   </si>
   <si>
-    <t>2025-09-04</t>
-  </si>
-  <si>
     <t>2025-10-05</t>
   </si>
   <si>
@@ -214,6 +211,15 @@
   </si>
   <si>
     <t>This is a potential deal for E-Commerce Website Revamp project.</t>
+  </si>
+  <si>
+    <t>26847</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>04-06-2025</t>
   </si>
 </sst>
 </file>
@@ -278,12 +284,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +599,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,8 +658,8 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1">
-        <v>26847</v>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
@@ -659,23 +667,23 @@
       <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>37</v>
+      <c r="F2" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="1">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -695,22 +703,22 @@
         <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="1">
         <v>63</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -730,22 +738,22 @@
         <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="1">
         <v>82</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -765,22 +773,22 @@
         <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="1">
         <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -800,22 +808,22 @@
         <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" s="1">
         <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -835,22 +843,22 @@
         <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="1">
         <v>88</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -870,22 +878,22 @@
         <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="1">
         <v>76</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -905,22 +913,22 @@
         <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" s="1">
         <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -940,22 +948,22 @@
         <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1">
         <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -975,22 +983,22 @@
         <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" s="1">
         <v>99</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/ninjacrm-automation-framework/src/test/resources/testData.xlsx
+++ b/ninjacrm-automation-framework/src/test/resources/testData.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Opp" sheetId="1" r:id="rId1"/>
+    <sheet name="Camp" sheetId="2" r:id="rId1"/>
+    <sheet name="Contact" sheetId="3" r:id="rId2"/>
+    <sheet name="Opp" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
-  <si>
-    <t>Opportunity ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="172">
   <si>
     <t>Opportunity Name*</t>
   </si>
@@ -54,36 +53,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>OPP-1000</t>
-  </si>
-  <si>
-    <t>OPP-1001</t>
-  </si>
-  <si>
-    <t>OPP-1002</t>
-  </si>
-  <si>
-    <t>OPP-1003</t>
-  </si>
-  <si>
-    <t>OPP-1004</t>
-  </si>
-  <si>
-    <t>OPP-1005</t>
-  </si>
-  <si>
-    <t>OPP-1006</t>
-  </si>
-  <si>
-    <t>OPP-1007</t>
-  </si>
-  <si>
-    <t>OPP-1008</t>
-  </si>
-  <si>
-    <t>OPP-1009</t>
-  </si>
-  <si>
     <t>Retail POS System</t>
   </si>
   <si>
@@ -220,13 +189,361 @@
   </si>
   <si>
     <t>04-06-2025</t>
+  </si>
+  <si>
+    <t>Campaign Name</t>
+  </si>
+  <si>
+    <t>Campaign Status</t>
+  </si>
+  <si>
+    <t>Target Size</t>
+  </si>
+  <si>
+    <t>Target Audience</t>
+  </si>
+  <si>
+    <t>Summer Promo 2025</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Young Professionals</t>
+  </si>
+  <si>
+    <t>Promotional campaign for summer discounts</t>
+  </si>
+  <si>
+    <t>Winter Sale Blast</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Huge discounts on winter clothing and gear</t>
+  </si>
+  <si>
+    <t>Diwali Dhamaka</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Families</t>
+  </si>
+  <si>
+    <t>Festival season special offers</t>
+  </si>
+  <si>
+    <t>New Year Bonanza</t>
+  </si>
+  <si>
+    <t>Corporate Employees</t>
+  </si>
+  <si>
+    <t>Exciting deals for the New Year</t>
+  </si>
+  <si>
+    <t>Spring Festival</t>
+  </si>
+  <si>
+    <t>Millennials</t>
+  </si>
+  <si>
+    <t>Celebrating spring with special promotions</t>
+  </si>
+  <si>
+    <t>Black Friday Deals</t>
+  </si>
+  <si>
+    <t>Online Shoppers</t>
+  </si>
+  <si>
+    <t>Exclusive Black Friday mega deals</t>
+  </si>
+  <si>
+    <t>Cyber Monday Madness</t>
+  </si>
+  <si>
+    <t>Tech Enthusiasts</t>
+  </si>
+  <si>
+    <t>Cyber Monday electronics discounts</t>
+  </si>
+  <si>
+    <t>Holi Hungama</t>
+  </si>
+  <si>
+    <t>College Youth</t>
+  </si>
+  <si>
+    <t>Colorful Holi promotions</t>
+  </si>
+  <si>
+    <t>Independence Day Offer</t>
+  </si>
+  <si>
+    <t>General Public</t>
+  </si>
+  <si>
+    <t>Patriotic discounts for Independence Day</t>
+  </si>
+  <si>
+    <t>Christmas Carnival</t>
+  </si>
+  <si>
+    <t>Shoppers Worldwide</t>
+  </si>
+  <si>
+    <t>Holiday season carnival offers</t>
+  </si>
+  <si>
+    <t>Contact ID</t>
+  </si>
+  <si>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Office Phone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>Auto Generated</t>
+  </si>
+  <si>
+    <t>Rahul Sharma</t>
+  </si>
+  <si>
+    <t>Tech Solutions</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>011-2345678</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>rahul.sharma@example.com</t>
+  </si>
+  <si>
+    <t>Priya Mehta</t>
+  </si>
+  <si>
+    <t>Bright Future Ltd</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>022-3456789</t>
+  </si>
+  <si>
+    <t>9123456780</t>
+  </si>
+  <si>
+    <t>priya.mehta@example.com</t>
+  </si>
+  <si>
+    <t>Amit Verma</t>
+  </si>
+  <si>
+    <t>Global Corp</t>
+  </si>
+  <si>
+    <t>Sales Executive</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>033-4567890</t>
+  </si>
+  <si>
+    <t>9988776655</t>
+  </si>
+  <si>
+    <t>amit.verma@example.com</t>
+  </si>
+  <si>
+    <t>Sneha Kapoor</t>
+  </si>
+  <si>
+    <t>Innovatech</t>
+  </si>
+  <si>
+    <t>HR Specialist</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>044-5678901</t>
+  </si>
+  <si>
+    <t>9765432109</t>
+  </si>
+  <si>
+    <t>sneha.kapoor@example.com</t>
+  </si>
+  <si>
+    <t>Rohit Singh</t>
+  </si>
+  <si>
+    <t>NextGen Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Team Lead</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>055-6789012</t>
+  </si>
+  <si>
+    <t>9345678901</t>
+  </si>
+  <si>
+    <t>rohit.singh@example.com</t>
+  </si>
+  <si>
+    <t>Neha Joshi</t>
+  </si>
+  <si>
+    <t>Alpha Systems</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>066-7890123</t>
+  </si>
+  <si>
+    <t>9001234567</t>
+  </si>
+  <si>
+    <t>neha.joshi@example.com</t>
+  </si>
+  <si>
+    <t>Vikas Patel</t>
+  </si>
+  <si>
+    <t>Vision Enterprises</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>077-8901234</t>
+  </si>
+  <si>
+    <t>9456781230</t>
+  </si>
+  <si>
+    <t>vikas.patel@example.com</t>
+  </si>
+  <si>
+    <t>Anjali Nair</t>
+  </si>
+  <si>
+    <t>Green Energy Co</t>
+  </si>
+  <si>
+    <t>Marketing Head</t>
+  </si>
+  <si>
+    <t>088-9012345</t>
+  </si>
+  <si>
+    <t>9789012345</t>
+  </si>
+  <si>
+    <t>anjali.nair@example.com</t>
+  </si>
+  <si>
+    <t>Arjun Reddy</t>
+  </si>
+  <si>
+    <t>Skyline Group</t>
+  </si>
+  <si>
+    <t>Operations Manager</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>099-0123456</t>
+  </si>
+  <si>
+    <t>9234567890</t>
+  </si>
+  <si>
+    <t>arjun.reddy@example.com</t>
+  </si>
+  <si>
+    <t>Simran Kaur</t>
+  </si>
+  <si>
+    <t>HealthPlus</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>010-1234567</t>
+  </si>
+  <si>
+    <t>9678901234</t>
+  </si>
+  <si>
+    <t>simran.kaur@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +558,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -284,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -292,6 +622,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,27 +940,614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45930</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="7">
+        <v>46006</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8000</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45971</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4500</v>
+      </c>
+      <c r="D5" s="7">
+        <v>46027</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6000</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46101</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45986</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7500</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45989</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5200</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46105</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4000</v>
+      </c>
+      <c r="D10" s="7">
+        <v>46249</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9000</v>
+      </c>
+      <c r="D11" s="7">
+        <v>46016</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -647,358 +1578,325 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1">
+        <v>5458</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1">
+        <v>63</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>23819</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1">
+        <v>82</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>37721</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43010</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>35918</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="1">
+        <v>88</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>25640</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="1">
+        <v>76</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>25136</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="1">
+        <v>77</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40875</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5458</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="1">
-        <v>63</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1">
-        <v>23819</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="1">
-        <v>82</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1">
-        <v>37721</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="1">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43010</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="1">
-        <v>38</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1">
-        <v>35918</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="1">
-        <v>88</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1">
-        <v>25640</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="1">
-        <v>76</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1">
-        <v>25136</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="1">
-        <v>77</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1">
-        <v>40875</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10562</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1">
+        <v>99</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="1">
-        <v>38</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10562</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="1">
-        <v>99</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ninjacrm-automation-framework/src/test/resources/testData.xlsx
+++ b/ninjacrm-automation-framework/src/test/resources/testData.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Camp" sheetId="2" r:id="rId1"/>
     <sheet name="Contact" sheetId="3" r:id="rId2"/>
-    <sheet name="Opp" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Opp" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -614,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,10 +633,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,31 +1201,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1527,6 +1525,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
